--- a/ProgrammableCalculator/Product Backlog and Sprint Backlog/Project Burndown Chart.xlsx
+++ b/ProgrammableCalculator/Product Backlog and Sprint Backlog/Project Burndown Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9e22c7e4a321c52/Documenti/NetBeansProjects/Git/ProgrammableCalculator/ProgrammableCalculator/Product Backlog and Sprint Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{E9ABBA97-BE76-4722-9B4F-C63478FA412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4519C5A1-F877-4C5F-AC9C-983F1A0B06A0}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{E9ABBA97-BE76-4722-9B4F-C63478FA412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2982DDA-DCD0-4CCA-A9AB-E7C4BE882832}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{930585C1-4F94-4C45-8970-7F516D3D1992}"/>
+    <workbookView xWindow="7305" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{930585C1-4F94-4C45-8970-7F516D3D1992}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -213,6 +213,9 @@
                 <c:pt idx="1">
                   <c:v>202</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>124</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -265,14 +268,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>202</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1384,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2181B26D-064E-4DF3-901B-601D54FA2A18}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,19 +1417,19 @@
       <c r="C2">
         <v>202</v>
       </c>
+      <c r="D2">
+        <v>124</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>202</v>
-      </c>
       <c r="D3">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E3">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
